--- a/Zeitplanen.xlsx
+++ b/Zeitplanen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\Documents\GitHub\Project 335\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9BA860-5088-4A5D-962A-39B2B7960D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC74762-FD25-4914-9036-97133F5242C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3390" yWindow="2650" windowWidth="19200" windowHeight="9970" xr2:uid="{4B305CFC-C0B3-4155-8BAF-9941DD21C0F0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{4B305CFC-C0B3-4155-8BAF-9941DD21C0F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,19 +36,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
   <si>
     <t>Planen</t>
   </si>
   <si>
-    <t>Documentation Schreiben</t>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>SOLL</t>
+  </si>
+  <si>
+    <t>IST</t>
+  </si>
+  <si>
+    <t>Scene
+erstellen</t>
+  </si>
+  <si>
+    <t>C# Classes
+erstellen</t>
+  </si>
+  <si>
+    <t>GUI 
+erstellen</t>
+  </si>
+  <si>
+    <t>zusatz
+funktionen</t>
+  </si>
+  <si>
+    <t>Docum-entation 
+Schreiben</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,8 +82,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -70,8 +125,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor theme="5" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor theme="5" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -79,14 +146,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,52 +494,401 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4B60CB-9A91-4A55-BDDC-A9937FEA8F07}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.36328125" customWidth="1"/>
+    <col min="2" max="15" width="5.453125" customWidth="1"/>
+    <col min="16" max="16" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.26953125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.26953125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.26953125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="2">
+      <c r="B1" s="5">
         <v>44963</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5">
         <v>44964</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="5"/>
+      <c r="F1" s="5">
         <v>44965</v>
       </c>
-      <c r="E1" s="2">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5">
         <v>44966</v>
       </c>
-      <c r="F1" s="2">
+      <c r="I1" s="5"/>
+      <c r="J1" s="5">
         <v>44967</v>
       </c>
-      <c r="G1" s="2">
+      <c r="K1" s="5"/>
+      <c r="L1" s="5">
         <v>44968</v>
       </c>
-      <c r="H1" s="2">
+      <c r="M1" s="5"/>
+      <c r="N1" s="5">
         <v>44969</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="O1" s="5"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Zeitplanen.xlsx
+++ b/Zeitplanen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\Documents\GitHub\Project 335\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC74762-FD25-4914-9036-97133F5242C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD29D257-1D0C-4599-B335-13D28FCA686E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{4B305CFC-C0B3-4155-8BAF-9941DD21C0F0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
   <si>
     <t>Planen</t>
   </si>
@@ -112,7 +112,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -135,6 +135,18 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor theme="5" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor theme="5" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor theme="5" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
   </fills>
@@ -165,21 +177,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,16 +509,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4B60CB-9A91-4A55-BDDC-A9937FEA8F07}">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.36328125" customWidth="1"/>
-    <col min="2" max="15" width="5.453125" customWidth="1"/>
+    <col min="2" max="11" width="5.453125" customWidth="1"/>
+    <col min="12" max="15" width="5.453125" style="10" customWidth="1"/>
     <col min="16" max="16" width="4.7265625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="3.26953125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="4.7265625" bestFit="1" customWidth="1"/>
@@ -518,34 +534,30 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="5">
+      <c r="B1" s="7">
         <v>44963</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7">
         <v>44964</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5">
+      <c r="E1" s="7"/>
+      <c r="F1" s="7">
         <v>44965</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5">
+      <c r="G1" s="7"/>
+      <c r="H1" s="7">
         <v>44966</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5">
+      <c r="I1" s="7"/>
+      <c r="J1" s="7">
         <v>44967</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5">
-        <v>44968</v>
-      </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5">
-        <v>44969</v>
-      </c>
-      <c r="O1" s="5"/>
+      <c r="K1" s="7"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -579,94 +591,86 @@
       <c r="K2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
     </row>
     <row r="4" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
     </row>
     <row r="5" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
     </row>
     <row r="6" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
@@ -676,54 +680,54 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
     </row>
     <row r="8" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-    </row>
-    <row r="9" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+    </row>
+    <row r="9" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
@@ -737,10 +741,10 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
@@ -754,10 +758,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
@@ -771,10 +775,10 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
@@ -788,10 +792,10 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
@@ -805,10 +809,10 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
@@ -822,10 +826,10 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
@@ -839,10 +843,10 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
@@ -856,10 +860,10 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
@@ -873,16 +877,26 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="5">
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="L1:M1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="F1:G1"/>

--- a/Zeitplanen.xlsx
+++ b/Zeitplanen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\Documents\GitHub\Project 335\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\Documents\GitPull\Project-335\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD29D257-1D0C-4599-B335-13D28FCA686E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FE9B87-E879-4270-9539-CA0A8B428F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{4B305CFC-C0B3-4155-8BAF-9941DD21C0F0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{4B305CFC-C0B3-4155-8BAF-9941DD21C0F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>Planen</t>
   </si>
@@ -68,13 +68,43 @@
   <si>
     <t>Docum-entation 
 Schreiben</t>
+  </si>
+  <si>
+    <t>Reflektion</t>
+  </si>
+  <si>
+    <t>Schreiben</t>
+  </si>
+  <si>
+    <t>erstellen</t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>zusatz</t>
+  </si>
+  <si>
+    <t>funktionen</t>
+  </si>
+  <si>
+    <t>Die Entwicklung von Pong in Unity war für mich eine Herausforderung, da ich zum ersten Mal C# und Unity verwendet habe. Ich war mit der Syntax und der Struktur des Codes nicht vertraut, aber er hatte ähnliche Komponenten wie Java. Ich musste lernen, wie ich mich in der Unity-Benutzeroberfläche zurechtfinde, die neu war, aber der Unreal Engine 5 ähnelte (mit der ich schon einige Erfahrung habe). Ich musste lernen, wie man Objekte erstellt, wie man Spiellogik erstellt und wie man sie mit der visuellen Schnittstelle verbindet.Anfangs fand ich es schwierig zu visualisieren, wie mein Code mit dem Geschehen auf dem Bildschirm zusammenhängt, weil ich es gewohnt war, den Ablauf meines Codes in Unreal mit den "Blueprints" visuell darzustellen. Ich musste viel recherchieren und experimentieren, um den Code und die Benutzeroberfläche zum Funktionieren zu bringen.Schließlich habe ich die Schwierigkeiten bei der Entwicklung von Pong in Unity überwunden, indem ich Schritt für Schritt vorgegangen bin und aus meinen Fehlern gelernt habe. Ich musste auch lernen, wie man den Code an die visuelle Schnittstelle bindet und wie man Fehler oder Bugs behebt, auf die ich stieß.</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>Scene erstellen</t>
+  </si>
+  <si>
+    <t>C# Classes erstellen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,14 +135,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,18 +192,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor rgb="FFC65911"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8CBAD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -173,28 +238,340 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFF4B084"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF4B084"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFF4B084"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF4B084"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFF4B084"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFF4B084"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF4B084"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFF4B084"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF4B084"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFF4B084"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFF4B084"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF4B084"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFF4B084"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFF4B084"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFF4B084"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFF4B084"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF4B084"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFF4B084"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFF4B084"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFF4B084"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFF4B084"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFF4B084"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFF4B084"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFF4B084"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFF4B084"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF4B084"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFF4B084"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFF4B084"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,393 +886,751 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4B60CB-9A91-4A55-BDDC-A9937FEA8F07}">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:AJ23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D11" sqref="D11:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.36328125" customWidth="1"/>
-    <col min="2" max="11" width="5.453125" customWidth="1"/>
-    <col min="12" max="15" width="5.453125" style="10" customWidth="1"/>
-    <col min="16" max="16" width="4.7265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.26953125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.7265625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.26953125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.7265625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.26953125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.7265625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.26953125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.7265625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="15" width="5.42578125" customWidth="1"/>
+    <col min="16" max="16" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
+    <col min="27" max="36" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
-      <c r="B1" s="7">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A1" s="16"/>
+      <c r="B1" s="27">
         <v>44963</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7">
+      <c r="C1" s="27"/>
+      <c r="D1" s="27">
         <v>44964</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7">
+      <c r="E1" s="27"/>
+      <c r="F1" s="27">
         <v>44965</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7">
+      <c r="G1" s="27"/>
+      <c r="H1" s="27">
         <v>44966</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7">
+      <c r="I1" s="27"/>
+      <c r="J1" s="27">
         <v>44967</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1"/>
-      <c r="M1"/>
-      <c r="N1"/>
-      <c r="O1"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
-      <c r="B2" s="4" t="s">
+      <c r="K1" s="27"/>
+      <c r="L1" s="17"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="10">
+        <v>44963</v>
+      </c>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10">
+        <v>44964</v>
+      </c>
+      <c r="AD1" s="10"/>
+      <c r="AE1" s="10">
+        <v>44965</v>
+      </c>
+      <c r="AF1" s="10"/>
+      <c r="AG1" s="10">
+        <v>44966</v>
+      </c>
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="10">
+        <v>44967</v>
+      </c>
+      <c r="AJ1" s="10"/>
+    </row>
+    <row r="2" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16"/>
+      <c r="B2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="L2" s="17"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="11"/>
+      <c r="AJ2" s="11"/>
+    </row>
+    <row r="3" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-    </row>
-    <row r="4" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="17"/>
+      <c r="Z3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="12"/>
+      <c r="AJ3" s="13"/>
+    </row>
+    <row r="4" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="30"/>
+      <c r="Z4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-    </row>
-    <row r="5" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="13"/>
+      <c r="AG4" s="12">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="13"/>
+      <c r="AI4" s="12">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="13"/>
+    </row>
+    <row r="5" spans="1:36" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="30"/>
+      <c r="Z5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-    </row>
-    <row r="6" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="14">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="15"/>
+      <c r="AE5" s="14"/>
+      <c r="AF5" s="15"/>
+      <c r="AG5" s="14"/>
+      <c r="AH5" s="15"/>
+      <c r="AI5" s="14"/>
+      <c r="AJ5" s="15"/>
+    </row>
+    <row r="6" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="30"/>
+      <c r="Z6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="AA6" s="12">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="12">
+        <v>2</v>
+      </c>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="12">
+        <v>2</v>
+      </c>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="13"/>
+    </row>
+    <row r="7" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="24"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="30"/>
+      <c r="Z7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-    </row>
-    <row r="8" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="15"/>
+      <c r="AE7" s="14">
+        <v>3</v>
+      </c>
+      <c r="AF7" s="15"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="15"/>
+      <c r="AI7" s="14"/>
+      <c r="AJ7" s="15"/>
+    </row>
+    <row r="8" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="30"/>
+      <c r="Z8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-    </row>
-    <row r="9" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="12">
+        <v>2</v>
+      </c>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="12">
+        <v>2</v>
+      </c>
+      <c r="AF8" s="13"/>
+      <c r="AG8" s="12"/>
+      <c r="AH8" s="13"/>
+      <c r="AI8" s="12"/>
+      <c r="AJ8" s="13"/>
+    </row>
+    <row r="9" spans="1:36" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="22"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="30"/>
+      <c r="Z9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12"/>
-      <c r="O12"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13"/>
-      <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14"/>
-      <c r="M14"/>
-      <c r="N14"/>
-      <c r="O14"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
-      <c r="O15"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
-      <c r="O16"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
-      <c r="O18"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20"/>
-      <c r="O20"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="14">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="14">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="15"/>
+      <c r="AG9" s="14"/>
+      <c r="AH9" s="15"/>
+      <c r="AI9" s="14"/>
+      <c r="AJ9" s="15"/>
+    </row>
+    <row r="10" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="17"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="6"/>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="6"/>
+      <c r="AJ10" s="7"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="33">
+        <v>1</v>
+      </c>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33">
+        <v>1</v>
+      </c>
+      <c r="G11" s="33"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="30"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="6"/>
+      <c r="AH11" s="7"/>
+      <c r="AI11" s="6"/>
+      <c r="AJ11" s="7"/>
+    </row>
+    <row r="12" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="30"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="9"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="9"/>
+      <c r="AI12" s="8"/>
+      <c r="AJ12" s="9"/>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="30"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="7"/>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="7"/>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="7"/>
+    </row>
+    <row r="14" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="30"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="9"/>
+      <c r="AI14" s="8"/>
+      <c r="AJ14" s="9"/>
+    </row>
+    <row r="15" spans="1:36" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="17"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="7"/>
+      <c r="AG15" s="6"/>
+      <c r="AH15" s="7"/>
+      <c r="AI15" s="6"/>
+      <c r="AJ15" s="7"/>
+    </row>
+    <row r="16" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="35"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="17"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="9"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="9"/>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="9"/>
+      <c r="AI16" s="8"/>
+      <c r="AJ16" s="9"/>
+    </row>
+    <row r="17" spans="1:36" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="35"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="17"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="7"/>
+      <c r="AG17" s="6"/>
+      <c r="AH17" s="7"/>
+      <c r="AI17" s="6"/>
+      <c r="AJ17" s="7"/>
+    </row>
+    <row r="18" spans="1:36" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="37"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="17"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="9"/>
+      <c r="AE18" s="8"/>
+      <c r="AF18" s="9"/>
+      <c r="AG18" s="8"/>
+      <c r="AH18" s="9"/>
+      <c r="AI18" s="8"/>
+      <c r="AJ18" s="9"/>
+    </row>
+    <row r="19" spans="1:36" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L19" s="17"/>
+    </row>
+    <row r="20" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L20" s="17"/>
+    </row>
+    <row r="21" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L21" s="17"/>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="L22" s="17"/>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="L23" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="147">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="B15:K18"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="AA1:AB2"/>
+    <mergeCell ref="AC1:AD2"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AI1:AJ2"/>
+    <mergeCell ref="AG1:AH2"/>
+    <mergeCell ref="AE1:AF2"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AA11:AB11"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="H1:I1"/>
@@ -904,5 +1639,6 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Zeitplanen.xlsx
+++ b/Zeitplanen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\Documents\GitPull\Project-335\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\Documents\GitHub\Project 335\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FE9B87-E879-4270-9539-CA0A8B428F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5AB43A-7F7B-4009-9119-A99D985A0DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{4B305CFC-C0B3-4155-8BAF-9941DD21C0F0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{4B305CFC-C0B3-4155-8BAF-9941DD21C0F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>Planen</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>C# Classes erstellen</t>
+  </si>
+  <si>
+    <t>what I learned</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -457,14 +460,113 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -473,104 +575,8 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -888,380 +894,380 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4B60CB-9A91-4A55-BDDC-A9937FEA8F07}">
   <dimension ref="A1:AJ23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:G12"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="15" width="5.42578125" customWidth="1"/>
-    <col min="16" max="16" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.453125" customWidth="1"/>
+    <col min="2" max="15" width="5.453125" customWidth="1"/>
+    <col min="16" max="16" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.26953125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.26953125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.26953125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.26953125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
     <col min="27" max="36" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A1" s="16"/>
-      <c r="B1" s="27">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A1" s="6"/>
+      <c r="B1" s="47">
         <v>44963</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27">
+      <c r="C1" s="47"/>
+      <c r="D1" s="47">
         <v>44964</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27">
+      <c r="E1" s="47"/>
+      <c r="F1" s="47">
         <v>44965</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27">
+      <c r="G1" s="47"/>
+      <c r="H1" s="47">
         <v>44966</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27">
+      <c r="I1" s="47"/>
+      <c r="J1" s="47">
         <v>44967</v>
       </c>
-      <c r="K1" s="27"/>
-      <c r="L1" s="17"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="7"/>
       <c r="Z1" s="1"/>
-      <c r="AA1" s="10">
+      <c r="AA1" s="37">
         <v>44963</v>
       </c>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="10">
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37">
         <v>44964</v>
       </c>
-      <c r="AD1" s="10"/>
-      <c r="AE1" s="10">
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37">
         <v>44965</v>
       </c>
-      <c r="AF1" s="10"/>
-      <c r="AG1" s="10">
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37">
         <v>44966</v>
       </c>
-      <c r="AH1" s="10"/>
-      <c r="AI1" s="10">
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37">
         <v>44967</v>
       </c>
-      <c r="AJ1" s="10"/>
-    </row>
-    <row r="2" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-      <c r="B2" s="18" t="s">
+      <c r="AJ1" s="37"/>
+    </row>
+    <row r="2" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="6"/>
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="17"/>
+      <c r="L2" s="7"/>
       <c r="Z2" s="1"/>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="11"/>
-      <c r="AG2" s="11"/>
-      <c r="AH2" s="11"/>
-      <c r="AI2" s="11"/>
-      <c r="AJ2" s="11"/>
-    </row>
-    <row r="3" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+    </row>
+    <row r="3" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="17"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="7"/>
       <c r="Z3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AA3" s="12">
+      <c r="AA3" s="45">
         <v>0.5</v>
       </c>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="12">
+      <c r="AB3" s="46"/>
+      <c r="AC3" s="45">
         <v>0.5</v>
       </c>
-      <c r="AD3" s="13"/>
-      <c r="AE3" s="12"/>
-      <c r="AF3" s="13"/>
-      <c r="AG3" s="12"/>
-      <c r="AH3" s="13"/>
-      <c r="AI3" s="12"/>
-      <c r="AJ3" s="13"/>
-    </row>
-    <row r="4" spans="1:36" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="AD3" s="46"/>
+      <c r="AE3" s="45"/>
+      <c r="AF3" s="46"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="46"/>
+      <c r="AI3" s="45"/>
+      <c r="AJ3" s="46"/>
+    </row>
+    <row r="4" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="30"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="21"/>
       <c r="Z4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="12">
+      <c r="AA4" s="45"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="45">
         <v>1</v>
       </c>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="12">
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="45">
         <v>1</v>
       </c>
-      <c r="AF4" s="13"/>
-      <c r="AG4" s="12">
+      <c r="AF4" s="46"/>
+      <c r="AG4" s="45">
         <v>1</v>
       </c>
-      <c r="AH4" s="13"/>
-      <c r="AI4" s="12">
+      <c r="AH4" s="46"/>
+      <c r="AI4" s="45">
         <v>1</v>
       </c>
-      <c r="AJ4" s="13"/>
-    </row>
-    <row r="5" spans="1:36" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+      <c r="AJ4" s="46"/>
+    </row>
+    <row r="5" spans="1:36" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="30"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="21"/>
       <c r="Z5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AA5" s="14"/>
-      <c r="AB5" s="15"/>
-      <c r="AC5" s="14">
+      <c r="AA5" s="43"/>
+      <c r="AB5" s="44"/>
+      <c r="AC5" s="43">
         <v>1</v>
       </c>
-      <c r="AD5" s="15"/>
-      <c r="AE5" s="14"/>
-      <c r="AF5" s="15"/>
-      <c r="AG5" s="14"/>
-      <c r="AH5" s="15"/>
-      <c r="AI5" s="14"/>
-      <c r="AJ5" s="15"/>
-    </row>
-    <row r="6" spans="1:36" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="AD5" s="44"/>
+      <c r="AE5" s="43"/>
+      <c r="AF5" s="44"/>
+      <c r="AG5" s="43"/>
+      <c r="AH5" s="44"/>
+      <c r="AI5" s="43"/>
+      <c r="AJ5" s="44"/>
+    </row>
+    <row r="6" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
       <c r="F6" s="33"/>
       <c r="G6" s="33"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="30"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="21"/>
       <c r="Z6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AA6" s="12">
+      <c r="AA6" s="45">
         <v>2</v>
       </c>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="12">
+      <c r="AB6" s="46"/>
+      <c r="AC6" s="45">
         <v>2</v>
       </c>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="12">
+      <c r="AD6" s="46"/>
+      <c r="AE6" s="45">
         <v>2</v>
       </c>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="12"/>
-      <c r="AH6" s="13"/>
-      <c r="AI6" s="12"/>
-      <c r="AJ6" s="13"/>
-    </row>
-    <row r="7" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
+      <c r="AF6" s="46"/>
+      <c r="AG6" s="45"/>
+      <c r="AH6" s="46"/>
+      <c r="AI6" s="45"/>
+      <c r="AJ6" s="46"/>
+    </row>
+    <row r="7" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="14"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
       <c r="D7" s="34"/>
       <c r="E7" s="34"/>
       <c r="F7" s="34"/>
       <c r="G7" s="34"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="30"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="21"/>
       <c r="Z7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="15"/>
-      <c r="AC7" s="14"/>
-      <c r="AD7" s="15"/>
-      <c r="AE7" s="14">
+      <c r="AA7" s="43"/>
+      <c r="AB7" s="44"/>
+      <c r="AC7" s="43"/>
+      <c r="AD7" s="44"/>
+      <c r="AE7" s="43">
         <v>3</v>
       </c>
-      <c r="AF7" s="15"/>
-      <c r="AG7" s="14"/>
-      <c r="AH7" s="15"/>
-      <c r="AI7" s="14"/>
-      <c r="AJ7" s="15"/>
-    </row>
-    <row r="8" spans="1:36" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="AF7" s="44"/>
+      <c r="AG7" s="43"/>
+      <c r="AH7" s="44"/>
+      <c r="AI7" s="43"/>
+      <c r="AJ7" s="44"/>
+    </row>
+    <row r="8" spans="1:36" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="33"/>
       <c r="G8" s="33"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="30"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="21"/>
       <c r="Z8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="12">
+      <c r="AA8" s="45"/>
+      <c r="AB8" s="46"/>
+      <c r="AC8" s="45">
         <v>2</v>
       </c>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="12">
+      <c r="AD8" s="46"/>
+      <c r="AE8" s="45">
         <v>2</v>
       </c>
-      <c r="AF8" s="13"/>
-      <c r="AG8" s="12"/>
-      <c r="AH8" s="13"/>
-      <c r="AI8" s="12"/>
-      <c r="AJ8" s="13"/>
-    </row>
-    <row r="9" spans="1:36" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
+      <c r="AF8" s="46"/>
+      <c r="AG8" s="45"/>
+      <c r="AH8" s="46"/>
+      <c r="AI8" s="45"/>
+      <c r="AJ8" s="46"/>
+    </row>
+    <row r="9" spans="1:36" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="12"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="34"/>
       <c r="E9" s="34"/>
       <c r="F9" s="34"/>
       <c r="G9" s="34"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="30"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="21"/>
       <c r="Z9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="15"/>
-      <c r="AC9" s="14">
+      <c r="AA9" s="43"/>
+      <c r="AB9" s="44"/>
+      <c r="AC9" s="43">
         <v>1</v>
       </c>
-      <c r="AD9" s="15"/>
-      <c r="AE9" s="14">
+      <c r="AD9" s="44"/>
+      <c r="AE9" s="43">
         <v>1</v>
       </c>
-      <c r="AF9" s="15"/>
-      <c r="AG9" s="14"/>
-      <c r="AH9" s="15"/>
-      <c r="AI9" s="14"/>
-      <c r="AJ9" s="15"/>
-    </row>
-    <row r="10" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
+      <c r="AF9" s="44"/>
+      <c r="AG9" s="43"/>
+      <c r="AH9" s="44"/>
+      <c r="AI9" s="43"/>
+      <c r="AJ9" s="44"/>
+    </row>
+    <row r="10" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="17"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="7"/>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="6"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="6"/>
-      <c r="AF10" s="7"/>
-      <c r="AG10" s="6"/>
-      <c r="AH10" s="7"/>
-      <c r="AI10" s="6"/>
-      <c r="AJ10" s="7"/>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="AA10" s="39"/>
+      <c r="AB10" s="40"/>
+      <c r="AC10" s="39"/>
+      <c r="AD10" s="40"/>
+      <c r="AE10" s="39"/>
+      <c r="AF10" s="40"/>
+      <c r="AG10" s="39"/>
+      <c r="AH10" s="40"/>
+      <c r="AI10" s="39"/>
+      <c r="AJ10" s="40"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
       <c r="D11" s="33">
         <v>1</v>
       </c>
@@ -1270,280 +1276,296 @@
         <v>1</v>
       </c>
       <c r="G11" s="33"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="30"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="21"/>
       <c r="Z11" s="3"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="6"/>
-      <c r="AD11" s="7"/>
-      <c r="AE11" s="6"/>
-      <c r="AF11" s="7"/>
-      <c r="AG11" s="6"/>
-      <c r="AH11" s="7"/>
-      <c r="AI11" s="6"/>
-      <c r="AJ11" s="7"/>
-    </row>
-    <row r="12" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
+      <c r="AA11" s="39"/>
+      <c r="AB11" s="40"/>
+      <c r="AC11" s="39"/>
+      <c r="AD11" s="40"/>
+      <c r="AE11" s="39"/>
+      <c r="AF11" s="40"/>
+      <c r="AG11" s="39"/>
+      <c r="AH11" s="40"/>
+      <c r="AI11" s="39"/>
+      <c r="AJ11" s="40"/>
+    </row>
+    <row r="12" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
       <c r="F12" s="34"/>
       <c r="G12" s="34"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="30"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="21"/>
       <c r="Z12" s="2"/>
-      <c r="AA12" s="8"/>
-      <c r="AB12" s="9"/>
-      <c r="AC12" s="8"/>
-      <c r="AD12" s="9"/>
-      <c r="AE12" s="8"/>
-      <c r="AF12" s="9"/>
-      <c r="AG12" s="8"/>
-      <c r="AH12" s="9"/>
-      <c r="AI12" s="8"/>
-      <c r="AJ12" s="9"/>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+      <c r="AA12" s="41"/>
+      <c r="AB12" s="42"/>
+      <c r="AC12" s="41"/>
+      <c r="AD12" s="42"/>
+      <c r="AE12" s="41"/>
+      <c r="AF12" s="42"/>
+      <c r="AG12" s="41"/>
+      <c r="AH12" s="42"/>
+      <c r="AI12" s="41"/>
+      <c r="AJ12" s="42"/>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A13" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="30"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="21"/>
       <c r="Z13" s="3"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="7"/>
-      <c r="AC13" s="6"/>
-      <c r="AD13" s="7"/>
-      <c r="AE13" s="6"/>
-      <c r="AF13" s="7"/>
-      <c r="AG13" s="6"/>
-      <c r="AH13" s="7"/>
-      <c r="AI13" s="6"/>
-      <c r="AJ13" s="7"/>
-    </row>
-    <row r="14" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="24" t="s">
+      <c r="AA13" s="39"/>
+      <c r="AB13" s="40"/>
+      <c r="AC13" s="39"/>
+      <c r="AD13" s="40"/>
+      <c r="AE13" s="39"/>
+      <c r="AF13" s="40"/>
+      <c r="AG13" s="39"/>
+      <c r="AH13" s="40"/>
+      <c r="AI13" s="39"/>
+      <c r="AJ13" s="40"/>
+    </row>
+    <row r="14" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="30"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="21"/>
       <c r="Z14" s="2"/>
-      <c r="AA14" s="8"/>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="8"/>
-      <c r="AD14" s="9"/>
-      <c r="AE14" s="8"/>
-      <c r="AF14" s="9"/>
-      <c r="AG14" s="8"/>
-      <c r="AH14" s="9"/>
-      <c r="AI14" s="8"/>
-      <c r="AJ14" s="9"/>
-    </row>
-    <row r="15" spans="1:36" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
+      <c r="AA14" s="41"/>
+      <c r="AB14" s="42"/>
+      <c r="AC14" s="41"/>
+      <c r="AD14" s="42"/>
+      <c r="AE14" s="41"/>
+      <c r="AF14" s="42"/>
+      <c r="AG14" s="41"/>
+      <c r="AH14" s="42"/>
+      <c r="AI14" s="41"/>
+      <c r="AJ14" s="42"/>
+    </row>
+    <row r="15" spans="1:36" ht="150" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="17"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="7"/>
       <c r="Z15" s="3"/>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="7"/>
-      <c r="AC15" s="6"/>
-      <c r="AD15" s="7"/>
-      <c r="AE15" s="6"/>
-      <c r="AF15" s="7"/>
-      <c r="AG15" s="6"/>
-      <c r="AH15" s="7"/>
-      <c r="AI15" s="6"/>
-      <c r="AJ15" s="7"/>
-    </row>
-    <row r="16" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="17"/>
+      <c r="AA15" s="39"/>
+      <c r="AB15" s="40"/>
+      <c r="AC15" s="39"/>
+      <c r="AD15" s="40"/>
+      <c r="AE15" s="39"/>
+      <c r="AF15" s="40"/>
+      <c r="AG15" s="39"/>
+      <c r="AH15" s="40"/>
+      <c r="AI15" s="39"/>
+      <c r="AJ15" s="40"/>
+    </row>
+    <row r="16" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="17"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="7"/>
       <c r="Z16" s="2"/>
-      <c r="AA16" s="8"/>
-      <c r="AB16" s="9"/>
-      <c r="AC16" s="8"/>
-      <c r="AD16" s="9"/>
-      <c r="AE16" s="8"/>
-      <c r="AF16" s="9"/>
-      <c r="AG16" s="8"/>
-      <c r="AH16" s="9"/>
-      <c r="AI16" s="8"/>
-      <c r="AJ16" s="9"/>
-    </row>
-    <row r="17" spans="1:36" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="17"/>
+      <c r="AA16" s="41"/>
+      <c r="AB16" s="42"/>
+      <c r="AC16" s="41"/>
+      <c r="AD16" s="42"/>
+      <c r="AE16" s="41"/>
+      <c r="AF16" s="42"/>
+      <c r="AG16" s="41"/>
+      <c r="AH16" s="42"/>
+      <c r="AI16" s="41"/>
+      <c r="AJ16" s="42"/>
+    </row>
+    <row r="17" spans="1:36" ht="105" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="19"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="7"/>
       <c r="Z17" s="3"/>
-      <c r="AA17" s="6"/>
-      <c r="AB17" s="7"/>
-      <c r="AC17" s="6"/>
-      <c r="AD17" s="7"/>
-      <c r="AE17" s="6"/>
-      <c r="AF17" s="7"/>
-      <c r="AG17" s="6"/>
-      <c r="AH17" s="7"/>
-      <c r="AI17" s="6"/>
-      <c r="AJ17" s="7"/>
-    </row>
-    <row r="18" spans="1:36" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="17"/>
+      <c r="AA17" s="39"/>
+      <c r="AB17" s="40"/>
+      <c r="AC17" s="39"/>
+      <c r="AD17" s="40"/>
+      <c r="AE17" s="39"/>
+      <c r="AF17" s="40"/>
+      <c r="AG17" s="39"/>
+      <c r="AH17" s="40"/>
+      <c r="AI17" s="39"/>
+      <c r="AJ17" s="40"/>
+    </row>
+    <row r="18" spans="1:36" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="20"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="7"/>
       <c r="Z18" s="2"/>
-      <c r="AA18" s="8"/>
-      <c r="AB18" s="9"/>
-      <c r="AC18" s="8"/>
-      <c r="AD18" s="9"/>
-      <c r="AE18" s="8"/>
-      <c r="AF18" s="9"/>
-      <c r="AG18" s="8"/>
-      <c r="AH18" s="9"/>
-      <c r="AI18" s="8"/>
-      <c r="AJ18" s="9"/>
-    </row>
-    <row r="19" spans="1:36" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L19" s="17"/>
-    </row>
-    <row r="20" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L20" s="17"/>
-    </row>
-    <row r="21" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L21" s="17"/>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="L22" s="17"/>
-    </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="L23" s="17"/>
+      <c r="AA18" s="41"/>
+      <c r="AB18" s="42"/>
+      <c r="AC18" s="41"/>
+      <c r="AD18" s="42"/>
+      <c r="AE18" s="41"/>
+      <c r="AF18" s="42"/>
+      <c r="AG18" s="41"/>
+      <c r="AH18" s="42"/>
+      <c r="AI18" s="41"/>
+      <c r="AJ18" s="42"/>
+    </row>
+    <row r="19" spans="1:36" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="7"/>
+    </row>
+    <row r="20" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L20" s="7"/>
+    </row>
+    <row r="21" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L21" s="7"/>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="L22" s="7"/>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="L23" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="147">
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="B15:K18"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AE13:AF13"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="AA1:AB2"/>
@@ -1568,74 +1590,61 @@
     <mergeCell ref="AC5:AD5"/>
     <mergeCell ref="AC6:AD6"/>
     <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="B15:K18"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Zeitplanen.xlsx
+++ b/Zeitplanen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\Documents\GitHub\Project 335\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\Documents\GitPull\Project-335\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5AB43A-7F7B-4009-9119-A99D985A0DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F5EA55-9E1C-4E7B-A977-FB13718ED05D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{4B305CFC-C0B3-4155-8BAF-9941DD21C0F0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{4B305CFC-C0B3-4155-8BAF-9941DD21C0F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>Planen</t>
   </si>
@@ -88,9 +88,6 @@
     <t>funktionen</t>
   </si>
   <si>
-    <t>Die Entwicklung von Pong in Unity war für mich eine Herausforderung, da ich zum ersten Mal C# und Unity verwendet habe. Ich war mit der Syntax und der Struktur des Codes nicht vertraut, aber er hatte ähnliche Komponenten wie Java. Ich musste lernen, wie ich mich in der Unity-Benutzeroberfläche zurechtfinde, die neu war, aber der Unreal Engine 5 ähnelte (mit der ich schon einige Erfahrung habe). Ich musste lernen, wie man Objekte erstellt, wie man Spiellogik erstellt und wie man sie mit der visuellen Schnittstelle verbindet.Anfangs fand ich es schwierig zu visualisieren, wie mein Code mit dem Geschehen auf dem Bildschirm zusammenhängt, weil ich es gewohnt war, den Ablauf meines Codes in Unreal mit den "Blueprints" visuell darzustellen. Ich musste viel recherchieren und experimentieren, um den Code und die Benutzeroberfläche zum Funktionieren zu bringen.Schließlich habe ich die Schwierigkeiten bei der Entwicklung von Pong in Unity überwunden, indem ich Schritt für Schritt vorgegangen bin und aus meinen Fehlern gelernt habe. Ich musste auch lernen, wie man den Code an die visuelle Schnittstelle bindet und wie man Fehler oder Bugs behebt, auf die ich stieß.</t>
-  </si>
-  <si>
     <t>Documentation</t>
   </si>
   <si>
@@ -101,6 +98,12 @@
   </si>
   <si>
     <t>what I learned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heute war ein schwieriger Tag, da ich die GUI einrichten und testen musste, was ich bisher gemacht habe, sowie die zusätzlichen Funktionen. Das war oft ein Problem, da ich testete, ob etwas funktionierte, versuchte, es zu reparieren oder zu verbessern und dann etwas anderes kaputt machte. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich habe daraus gelernt, dass ich mich im Voraus besser vorbereiten sollte, denn wenn ich es nur einmal mache und später keine neuen Dinge hinzufüge, muss ich nicht alles wiederholt testen, falls die neue Funktion das Spiel kaputt macht. </t>
   </si>
 </sst>
 </file>
@@ -218,7 +221,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -445,11 +448,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFF4B084"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFF4B084"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -499,15 +533,58 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -535,48 +612,17 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -894,74 +940,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4B60CB-9A91-4A55-BDDC-A9937FEA8F07}">
   <dimension ref="A1:AJ23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:J19"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.453125" customWidth="1"/>
-    <col min="2" max="15" width="5.453125" customWidth="1"/>
-    <col min="16" max="16" width="4.7265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.26953125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.7265625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.26953125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.7265625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.26953125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.7265625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.26953125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.7265625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="15" width="5.42578125" customWidth="1"/>
+    <col min="16" max="16" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
     <col min="27" max="36" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
-      <c r="B1" s="47">
+      <c r="B1" s="25">
         <v>44963</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47">
+      <c r="C1" s="25"/>
+      <c r="D1" s="25">
         <v>44964</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47">
+      <c r="E1" s="25"/>
+      <c r="F1" s="25">
         <v>44965</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47">
+      <c r="G1" s="25"/>
+      <c r="H1" s="25">
         <v>44966</v>
       </c>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47">
+      <c r="I1" s="25"/>
+      <c r="J1" s="25">
         <v>44967</v>
       </c>
-      <c r="K1" s="47"/>
+      <c r="K1" s="25"/>
       <c r="L1" s="7"/>
       <c r="Z1" s="1"/>
-      <c r="AA1" s="37">
+      <c r="AA1" s="29">
         <v>44963</v>
       </c>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37">
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29">
         <v>44964</v>
       </c>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37">
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29">
         <v>44965</v>
       </c>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="37">
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="29">
         <v>44966</v>
       </c>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="37">
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="29">
         <v>44967</v>
       </c>
-      <c r="AJ1" s="37"/>
-    </row>
-    <row r="2" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AJ1" s="29"/>
+    </row>
+    <row r="2" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
       <c r="B2" s="8" t="s">
         <v>2</v>
@@ -995,18 +1041,18 @@
       </c>
       <c r="L2" s="7"/>
       <c r="Z2" s="1"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="38"/>
-    </row>
-    <row r="3" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="30"/>
+    </row>
+    <row r="3" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
@@ -1024,218 +1070,218 @@
       <c r="Z3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AA3" s="45">
+      <c r="AA3" s="21">
         <v>0.5</v>
       </c>
-      <c r="AB3" s="46"/>
-      <c r="AC3" s="45">
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="21">
         <v>0.5</v>
       </c>
-      <c r="AD3" s="46"/>
-      <c r="AE3" s="45"/>
-      <c r="AF3" s="46"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="46"/>
-      <c r="AI3" s="45"/>
-      <c r="AJ3" s="46"/>
-    </row>
-    <row r="4" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="AD3" s="22"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="22"/>
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="22"/>
+      <c r="AI3" s="21"/>
+      <c r="AJ3" s="22"/>
+    </row>
+    <row r="4" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="21"/>
+        <v>15</v>
+      </c>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="28"/>
       <c r="Z4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AA4" s="45"/>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="45">
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="21">
         <v>1</v>
       </c>
-      <c r="AD4" s="46"/>
-      <c r="AE4" s="45">
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="21">
         <v>1</v>
       </c>
-      <c r="AF4" s="46"/>
-      <c r="AG4" s="45">
+      <c r="AF4" s="22"/>
+      <c r="AG4" s="21">
         <v>1</v>
       </c>
-      <c r="AH4" s="46"/>
-      <c r="AI4" s="45">
+      <c r="AH4" s="22"/>
+      <c r="AI4" s="21">
         <v>1</v>
       </c>
-      <c r="AJ4" s="46"/>
-    </row>
-    <row r="5" spans="1:36" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AJ4" s="22"/>
+    </row>
+    <row r="5" spans="1:36" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="21"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="28"/>
       <c r="Z5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AA5" s="43"/>
-      <c r="AB5" s="44"/>
-      <c r="AC5" s="43">
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="19">
         <v>1</v>
       </c>
-      <c r="AD5" s="44"/>
-      <c r="AE5" s="43"/>
-      <c r="AF5" s="44"/>
-      <c r="AG5" s="43"/>
-      <c r="AH5" s="44"/>
-      <c r="AI5" s="43"/>
-      <c r="AJ5" s="44"/>
-    </row>
-    <row r="6" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="AD5" s="20"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="20"/>
+      <c r="AG5" s="19"/>
+      <c r="AH5" s="20"/>
+      <c r="AI5" s="19"/>
+      <c r="AJ5" s="20"/>
+    </row>
+    <row r="6" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="21"/>
+        <v>16</v>
+      </c>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="28"/>
       <c r="Z6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AA6" s="45">
+      <c r="AA6" s="21">
         <v>2</v>
       </c>
-      <c r="AB6" s="46"/>
-      <c r="AC6" s="45">
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="21">
         <v>2</v>
       </c>
-      <c r="AD6" s="46"/>
-      <c r="AE6" s="45">
+      <c r="AD6" s="22"/>
+      <c r="AE6" s="21">
         <v>2</v>
       </c>
-      <c r="AF6" s="46"/>
-      <c r="AG6" s="45"/>
-      <c r="AH6" s="46"/>
-      <c r="AI6" s="45"/>
-      <c r="AJ6" s="46"/>
-    </row>
-    <row r="7" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF6" s="22"/>
+      <c r="AG6" s="21"/>
+      <c r="AH6" s="22"/>
+      <c r="AI6" s="21"/>
+      <c r="AJ6" s="22"/>
+    </row>
+    <row r="7" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="21"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="28"/>
       <c r="Z7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AA7" s="43"/>
-      <c r="AB7" s="44"/>
-      <c r="AC7" s="43"/>
-      <c r="AD7" s="44"/>
-      <c r="AE7" s="43">
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="20"/>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="20"/>
+      <c r="AE7" s="19">
         <v>3</v>
       </c>
-      <c r="AF7" s="44"/>
-      <c r="AG7" s="43"/>
-      <c r="AH7" s="44"/>
-      <c r="AI7" s="43"/>
-      <c r="AJ7" s="44"/>
-    </row>
-    <row r="8" spans="1:36" ht="29" x14ac:dyDescent="0.35">
+      <c r="AF7" s="20"/>
+      <c r="AG7" s="19"/>
+      <c r="AH7" s="20"/>
+      <c r="AI7" s="19"/>
+      <c r="AJ7" s="20"/>
+    </row>
+    <row r="8" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="21"/>
+        <v>17</v>
+      </c>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="28"/>
       <c r="Z8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AA8" s="45"/>
-      <c r="AB8" s="46"/>
-      <c r="AC8" s="45">
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="21">
         <v>2</v>
       </c>
-      <c r="AD8" s="46"/>
-      <c r="AE8" s="45">
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="21">
         <v>2</v>
       </c>
-      <c r="AF8" s="46"/>
-      <c r="AG8" s="45"/>
-      <c r="AH8" s="46"/>
-      <c r="AI8" s="45"/>
-      <c r="AJ8" s="46"/>
-    </row>
-    <row r="9" spans="1:36" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF8" s="22"/>
+      <c r="AG8" s="21"/>
+      <c r="AH8" s="22"/>
+      <c r="AI8" s="21"/>
+      <c r="AJ8" s="22"/>
+    </row>
+    <row r="9" spans="1:36" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="21"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="28"/>
       <c r="Z9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="AA9" s="43"/>
-      <c r="AB9" s="44"/>
-      <c r="AC9" s="43">
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="19">
         <v>1</v>
       </c>
-      <c r="AD9" s="44"/>
-      <c r="AE9" s="43">
+      <c r="AD9" s="20"/>
+      <c r="AE9" s="19">
         <v>1</v>
       </c>
-      <c r="AF9" s="44"/>
-      <c r="AG9" s="43"/>
-      <c r="AH9" s="44"/>
-      <c r="AI9" s="43"/>
-      <c r="AJ9" s="44"/>
-    </row>
-    <row r="10" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="19"/>
+      <c r="AH9" s="20"/>
+      <c r="AI9" s="19"/>
+      <c r="AJ9" s="20"/>
+    </row>
+    <row r="10" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>1</v>
       </c>
@@ -1245,269 +1291,379 @@
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
+      <c r="H10" s="51">
+        <v>3</v>
+      </c>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51">
+        <v>2</v>
+      </c>
+      <c r="K10" s="51"/>
       <c r="L10" s="7"/>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="39"/>
-      <c r="AB10" s="40"/>
-      <c r="AC10" s="39"/>
-      <c r="AD10" s="40"/>
-      <c r="AE10" s="39"/>
-      <c r="AF10" s="40"/>
-      <c r="AG10" s="39"/>
-      <c r="AH10" s="40"/>
-      <c r="AI10" s="39"/>
-      <c r="AJ10" s="40"/>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AA10" s="23"/>
+      <c r="AB10" s="24"/>
+      <c r="AC10" s="23"/>
+      <c r="AD10" s="24"/>
+      <c r="AE10" s="23"/>
+      <c r="AF10" s="24"/>
+      <c r="AG10" s="23"/>
+      <c r="AH10" s="24"/>
+      <c r="AI10" s="23"/>
+      <c r="AJ10" s="24"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="33">
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="33">
+        <v>0</v>
+      </c>
+      <c r="I11" s="33">
         <v>1</v>
       </c>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33">
-        <v>1</v>
-      </c>
-      <c r="G11" s="33"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="21"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="28"/>
       <c r="Z11" s="3"/>
-      <c r="AA11" s="39"/>
-      <c r="AB11" s="40"/>
-      <c r="AC11" s="39"/>
-      <c r="AD11" s="40"/>
-      <c r="AE11" s="39"/>
-      <c r="AF11" s="40"/>
-      <c r="AG11" s="39"/>
-      <c r="AH11" s="40"/>
-      <c r="AI11" s="39"/>
-      <c r="AJ11" s="40"/>
-    </row>
-    <row r="12" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AA11" s="23"/>
+      <c r="AB11" s="24"/>
+      <c r="AC11" s="23"/>
+      <c r="AD11" s="24"/>
+      <c r="AE11" s="23"/>
+      <c r="AF11" s="24"/>
+      <c r="AG11" s="23"/>
+      <c r="AH11" s="24"/>
+      <c r="AI11" s="23"/>
+      <c r="AJ11" s="24"/>
+    </row>
+    <row r="12" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="21"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="28"/>
       <c r="Z12" s="2"/>
-      <c r="AA12" s="41"/>
-      <c r="AB12" s="42"/>
-      <c r="AC12" s="41"/>
-      <c r="AD12" s="42"/>
-      <c r="AE12" s="41"/>
-      <c r="AF12" s="42"/>
-      <c r="AG12" s="41"/>
-      <c r="AH12" s="42"/>
-      <c r="AI12" s="41"/>
-      <c r="AJ12" s="42"/>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AA12" s="26"/>
+      <c r="AB12" s="27"/>
+      <c r="AC12" s="26"/>
+      <c r="AD12" s="27"/>
+      <c r="AE12" s="26"/>
+      <c r="AF12" s="27"/>
+      <c r="AG12" s="26"/>
+      <c r="AH12" s="27"/>
+      <c r="AI12" s="26"/>
+      <c r="AJ12" s="27"/>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="21"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="33">
+        <v>1</v>
+      </c>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33">
+        <v>2</v>
+      </c>
+      <c r="K13" s="33"/>
+      <c r="L13" s="28"/>
       <c r="Z13" s="3"/>
-      <c r="AA13" s="39"/>
-      <c r="AB13" s="40"/>
-      <c r="AC13" s="39"/>
-      <c r="AD13" s="40"/>
-      <c r="AE13" s="39"/>
-      <c r="AF13" s="40"/>
-      <c r="AG13" s="39"/>
-      <c r="AH13" s="40"/>
-      <c r="AI13" s="39"/>
-      <c r="AJ13" s="40"/>
-    </row>
-    <row r="14" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="14" t="s">
+      <c r="AA13" s="23"/>
+      <c r="AB13" s="24"/>
+      <c r="AC13" s="23"/>
+      <c r="AD13" s="24"/>
+      <c r="AE13" s="23"/>
+      <c r="AF13" s="24"/>
+      <c r="AG13" s="23"/>
+      <c r="AH13" s="24"/>
+      <c r="AI13" s="23"/>
+      <c r="AJ13" s="24"/>
+    </row>
+    <row r="14" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="21"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="28"/>
       <c r="Z14" s="2"/>
-      <c r="AA14" s="41"/>
-      <c r="AB14" s="42"/>
-      <c r="AC14" s="41"/>
-      <c r="AD14" s="42"/>
-      <c r="AE14" s="41"/>
-      <c r="AF14" s="42"/>
-      <c r="AG14" s="41"/>
-      <c r="AH14" s="42"/>
-      <c r="AI14" s="41"/>
-      <c r="AJ14" s="42"/>
-    </row>
-    <row r="15" spans="1:36" ht="150" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="27"/>
+      <c r="AC14" s="26"/>
+      <c r="AD14" s="27"/>
+      <c r="AE14" s="26"/>
+      <c r="AF14" s="27"/>
+      <c r="AG14" s="26"/>
+      <c r="AH14" s="27"/>
+      <c r="AI14" s="26"/>
+      <c r="AJ14" s="27"/>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="24"/>
+      <c r="B15" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="41"/>
       <c r="L15" s="7"/>
       <c r="Z15" s="3"/>
-      <c r="AA15" s="39"/>
-      <c r="AB15" s="40"/>
-      <c r="AC15" s="39"/>
-      <c r="AD15" s="40"/>
-      <c r="AE15" s="39"/>
-      <c r="AF15" s="40"/>
-      <c r="AG15" s="39"/>
-      <c r="AH15" s="40"/>
-      <c r="AI15" s="39"/>
-      <c r="AJ15" s="40"/>
-    </row>
-    <row r="16" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AA15" s="23"/>
+      <c r="AB15" s="24"/>
+      <c r="AC15" s="23"/>
+      <c r="AD15" s="24"/>
+      <c r="AE15" s="23"/>
+      <c r="AF15" s="24"/>
+      <c r="AG15" s="23"/>
+      <c r="AH15" s="24"/>
+      <c r="AI15" s="23"/>
+      <c r="AJ15" s="24"/>
+    </row>
+    <row r="16" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="27"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="44"/>
       <c r="L16" s="7"/>
       <c r="Z16" s="2"/>
-      <c r="AA16" s="41"/>
-      <c r="AB16" s="42"/>
-      <c r="AC16" s="41"/>
-      <c r="AD16" s="42"/>
-      <c r="AE16" s="41"/>
-      <c r="AF16" s="42"/>
-      <c r="AG16" s="41"/>
-      <c r="AH16" s="42"/>
-      <c r="AI16" s="41"/>
-      <c r="AJ16" s="42"/>
-    </row>
-    <row r="17" spans="1:36" ht="105" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="19"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="27"/>
+      <c r="AA16" s="26"/>
+      <c r="AB16" s="27"/>
+      <c r="AC16" s="26"/>
+      <c r="AD16" s="27"/>
+      <c r="AE16" s="26"/>
+      <c r="AF16" s="27"/>
+      <c r="AG16" s="26"/>
+      <c r="AH16" s="27"/>
+      <c r="AI16" s="26"/>
+      <c r="AJ16" s="27"/>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A17" s="37"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="44"/>
       <c r="L17" s="7"/>
       <c r="Z17" s="3"/>
-      <c r="AA17" s="39"/>
-      <c r="AB17" s="40"/>
-      <c r="AC17" s="39"/>
-      <c r="AD17" s="40"/>
-      <c r="AE17" s="39"/>
-      <c r="AF17" s="40"/>
-      <c r="AG17" s="39"/>
-      <c r="AH17" s="40"/>
-      <c r="AI17" s="39"/>
-      <c r="AJ17" s="40"/>
-    </row>
-    <row r="18" spans="1:36" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="20"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="30"/>
+      <c r="AA17" s="23"/>
+      <c r="AB17" s="24"/>
+      <c r="AC17" s="23"/>
+      <c r="AD17" s="24"/>
+      <c r="AE17" s="23"/>
+      <c r="AF17" s="24"/>
+      <c r="AG17" s="23"/>
+      <c r="AH17" s="24"/>
+      <c r="AI17" s="23"/>
+      <c r="AJ17" s="24"/>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A18" s="38"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="47"/>
       <c r="L18" s="7"/>
       <c r="Z18" s="2"/>
-      <c r="AA18" s="41"/>
-      <c r="AB18" s="42"/>
-      <c r="AC18" s="41"/>
-      <c r="AD18" s="42"/>
-      <c r="AE18" s="41"/>
-      <c r="AF18" s="42"/>
-      <c r="AG18" s="41"/>
-      <c r="AH18" s="42"/>
-      <c r="AI18" s="41"/>
-      <c r="AJ18" s="42"/>
-    </row>
-    <row r="19" spans="1:36" ht="90" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
+      <c r="AA18" s="26"/>
+      <c r="AB18" s="27"/>
+      <c r="AC18" s="26"/>
+      <c r="AD18" s="27"/>
+      <c r="AE18" s="26"/>
+      <c r="AF18" s="27"/>
+      <c r="AG18" s="26"/>
+      <c r="AH18" s="27"/>
+      <c r="AI18" s="26"/>
+      <c r="AJ18" s="27"/>
+    </row>
+    <row r="19" spans="1:36" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="50"/>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L20" s="7"/>
     </row>
-    <row r="21" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L21" s="7"/>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="L22" s="7"/>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="L23" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="147">
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D1:E1"/>
+  <mergeCells count="148">
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="B15:K18"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="AC1:AD2"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AI1:AJ2"/>
+    <mergeCell ref="AG1:AH2"/>
+    <mergeCell ref="AE1:AF2"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AG14:AH14"/>
     <mergeCell ref="AA17:AB17"/>
     <mergeCell ref="AA18:AB18"/>
     <mergeCell ref="AI3:AJ3"/>
@@ -1532,64 +1688,19 @@
     <mergeCell ref="AA4:AB4"/>
     <mergeCell ref="AA5:AB5"/>
     <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D1:E1"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="AA1:AB2"/>
-    <mergeCell ref="AC1:AD2"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AI1:AJ2"/>
-    <mergeCell ref="AG1:AH2"/>
-    <mergeCell ref="AE1:AF2"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AE14:AF14"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:H9"/>
@@ -1601,50 +1712,6 @@
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="B15:K18"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
